--- a/batches/22/day_08/day_08.xlsx
+++ b/batches/22/day_08/day_08.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shira/Documents/work/acciojob/modules/sql/batches/22/day_08/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A148E73-A412-3C4E-B37F-D450E70470A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695F796F-06C6-9B4E-A380-3127CBF96F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{655C2970-5AAF-B143-9D27-E884D8CDFB75}"/>
+    <workbookView xWindow="29400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{655C2970-5AAF-B143-9D27-E884D8CDFB75}"/>
   </bookViews>
   <sheets>
     <sheet name="Recap" sheetId="1" r:id="rId1"/>
     <sheet name="Agenda" sheetId="2" r:id="rId2"/>
     <sheet name="joins" sheetId="3" r:id="rId3"/>
+    <sheet name="inner" sheetId="4" r:id="rId4"/>
+    <sheet name="left" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="153">
   <si>
     <t>🎯 WHAT WE'VE LEARNED SO FAR:</t>
   </si>
@@ -432,6 +434,84 @@
   </si>
   <si>
     <t>Cross Join</t>
+  </si>
+  <si>
+    <t>Order_items</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>prod_id</t>
+  </si>
+  <si>
+    <t>Big Bazar</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>order_items</t>
+  </si>
+  <si>
+    <t>Indian Cricket</t>
+  </si>
+  <si>
+    <t>Playing 11</t>
+  </si>
+  <si>
+    <t>ETL</t>
+  </si>
+  <si>
+    <t>Extract</t>
+  </si>
+  <si>
+    <t>Transform</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>ELT</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Controlling</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Azure Data Lake</t>
+  </si>
+  <si>
+    <t>Bronse</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Tableau / Power BI</t>
+  </si>
+  <si>
+    <t>Lineage Flow</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t>orders</t>
   </si>
 </sst>
 </file>
@@ -509,7 +589,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -545,6 +625,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,7 +718,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -661,6 +747,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -720,6 +807,55 @@
         <a:xfrm>
           <a:off x="281692" y="10389173"/>
           <a:ext cx="7772400" cy="3261533"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>136878</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>62089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>107245</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>168347</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{521D128A-FCB2-CFF0-78F4-A71EC5210B41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="136878" y="62089"/>
+          <a:ext cx="7759700" cy="2138258"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1472,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CC50FE-4B0C-C943-B87A-683F9860E122}">
   <dimension ref="B2:L164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="217" workbookViewId="0">
-      <selection activeCell="G130" sqref="G130"/>
+    <sheetView topLeftCell="A170" zoomScale="217" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3564,4 +3700,399 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DFE32E-95E9-1144-927B-E136A55ADC8F}">
+  <dimension ref="B13:P47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A38" zoomScale="235" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="14">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>135</v>
+      </c>
+      <c r="F38" t="s">
+        <v>140</v>
+      </c>
+      <c r="H38" t="s">
+        <v>144</v>
+      </c>
+      <c r="J38" t="s">
+        <v>145</v>
+      </c>
+      <c r="K38">
+        <v>10</v>
+      </c>
+      <c r="P38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>136</v>
+      </c>
+      <c r="L39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" t="s">
+        <v>141</v>
+      </c>
+      <c r="M40">
+        <v>100</v>
+      </c>
+      <c r="P40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>138</v>
+      </c>
+      <c r="J41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" t="s">
+        <v>143</v>
+      </c>
+      <c r="J44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>137</v>
+      </c>
+      <c r="J47" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69A5CD8-03F5-1E45-A10B-1BF4340C842E}">
+  <dimension ref="B2:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="260" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/batches/22/day_08/day_08.xlsx
+++ b/batches/22/day_08/day_08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11217"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shira/Documents/work/acciojob/modules/sql/batches/22/day_08/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695F796F-06C6-9B4E-A380-3127CBF96F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52450161-D028-EB4B-AE37-F1E9EF1CC586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{655C2970-5AAF-B143-9D27-E884D8CDFB75}"/>
+    <workbookView xWindow="29400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{655C2970-5AAF-B143-9D27-E884D8CDFB75}"/>
   </bookViews>
   <sheets>
     <sheet name="Recap" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="joins" sheetId="3" r:id="rId3"/>
     <sheet name="inner" sheetId="4" r:id="rId4"/>
     <sheet name="left" sheetId="5" r:id="rId5"/>
+    <sheet name="right" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="155">
   <si>
     <t>🎯 WHAT WE'VE LEARNED SO FAR:</t>
   </si>
@@ -512,6 +513,12 @@
   </si>
   <si>
     <t>orders</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>store_id</t>
   </si>
 </sst>
 </file>
@@ -724,17 +731,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -747,7 +746,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -865,6 +872,793 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>182065</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>767065</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>174102</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="6" name="Ink 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{878CF64E-2E20-73A6-56CC-2A6E18A401F5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6908760" y="1735560"/>
+            <a:ext cx="585000" cy="892440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="Ink 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{878CF64E-2E20-73A6-56CC-2A6E18A401F5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6904440" y="1731242"/>
+              <a:ext cx="593640" cy="901077"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>445183</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>689595</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3439</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="7" name="Ink 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B92FC37E-6DD1-B2D2-E018-887B27B53F9D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4561920" y="1841760"/>
+            <a:ext cx="1067760" cy="1024560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Ink 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B92FC37E-6DD1-B2D2-E018-887B27B53F9D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4557600" y="1837440"/>
+              <a:ext cx="1076400" cy="1033200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>597075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>189988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>146785</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>151050</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="23" name="Ink 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73E3F039-936D-D312-164C-B73CF724E223}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5537160" y="1825920"/>
+            <a:ext cx="1336320" cy="983520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="23" name="Ink 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73E3F039-936D-D312-164C-B73CF724E223}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5532841" y="1821600"/>
+              <a:ext cx="1344958" cy="992160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>18238</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>48423</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>41204</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="29" name="Ink 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7115D855-8D41-89A4-99C5-3875C0B10D0F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7568280" y="2259360"/>
+            <a:ext cx="1676880" cy="1258200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="29" name="Ink 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7115D855-8D41-89A4-99C5-3875C0B10D0F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7563960" y="2255040"/>
+              <a:ext cx="1685520" cy="1266840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285358</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>115759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>404518</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>74707</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="33" name="Ink 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BB024C5-8537-CC0F-4A96-32F3E74C1FE7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7835400" y="2978640"/>
+            <a:ext cx="119160" cy="163440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="33" name="Ink 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BB024C5-8537-CC0F-4A96-32F3E74C1FE7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7831080" y="2974320"/>
+              <a:ext cx="127800" cy="172080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>758038</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>84799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>18210</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>185959</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="37" name="Ink 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A17DFAE-9FF1-B313-7485-3FFBA43D8CB9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8308080" y="2947680"/>
+            <a:ext cx="83520" cy="101160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="37" name="Ink 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A17DFAE-9FF1-B313-7485-3FFBA43D8CB9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8303760" y="2943360"/>
+              <a:ext cx="92160" cy="109800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209438</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>136639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>821715</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>31415</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="56" name="Ink 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE1099D-7629-A7F5-623D-3B0BE80B2749}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2679480" y="2999520"/>
+            <a:ext cx="3082320" cy="1735200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="56" name="Ink 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE1099D-7629-A7F5-623D-3B0BE80B2749}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2673359" y="2993400"/>
+              <a:ext cx="3094561" cy="1747440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>300130</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>169050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>793330</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>73627</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="60" name="Ink 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47020F88-3690-94ED-410B-DC8F8172DC0D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3593520" y="2827440"/>
+            <a:ext cx="493200" cy="313560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="60" name="Ink 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47020F88-3690-94ED-410B-DC8F8172DC0D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3587396" y="2821320"/>
+              <a:ext cx="505449" cy="325800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-14T17:24:07.858"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">887 631 24575,'-5'-2'0,"1"3"0,-14 0 0,-24 19 0,-14 10 0,-24 19 0,28-5 0,0 4 0,2-6 0,-2 4 0,4 4 0,-2 6 0,3-2 0,-5 7 0,3 0 0,-6 10 0,6 2 0,17-14 0,7-1 0,5-11 0,5 1 0,1 9 0,4-2 0,3 24 0,5-25 0,1-4 0,4 0 0,8 9 0,8 2 0,25 18 0,-17-24 0,6 0 0,21 0 0,3-7 0,21 8 0,-13-19 0,3-6 0,15-4 0,11-9 0,-24-13 0,22-17 0,-26 0 0,-12-3 0,2-3 0,35-21 0,-33 11 0,3-5 0,8-8 0,-3-3 0,-16 8 0,-3-2 0,1-5 0,-5-4 0,-16 3 0,-6-1 0,12-46 0,-8 0 0,-13-5 0,-12 15 0,-11-17 0,0 22 0,-16-9 0,8 37 0,-6 0 0,-4-1 0,-15-15 0,-11-13 0,20 34 0,-1 4 0,-18-15 0,17 16 0,0 2 0,-11-7 0,19 18 0,2 7 0,-4 2 0,4 3 0,-8-3 0,24 14 0,0-2 0,6 3 0,1 0 0,-3 0 0,-9-1 0,-16-5 0,-2 0 0,-8-5 0,21 7 0,5-1 0,12 4 0,2 0 0,-4 0 0,-3-1 0,4 4 0,-3-1 0,8 2 0,0 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1800">736 44 24575,'-2'3'0,"1"25"0,-1 5 0,-1 30 0,1-25 0,-2-3 0,3-22 0,1-12 0,1-5 0,3-17 0,-4-35 0,2 13 0,0-10 0,-1 31 0,0 13 0,1 5 0,0 2 0,11-5 0,-1 3 0,11-7 0,-10 3 0,2 1 0,-9 2 0,1 3 0,-2 2 0,-1 2 0,3 5 0,-4 1 0,-2 7 0,-3-5 0,-2 1 0,-1 0 0,-5 0 0,5-1 0,-4-5 0,9-2 0,0-2 0,2 0 0,2 1 0,7 2 0,-4-2 0,10 4 0,-6-2 0,3 2 0,1 13 0,-5-6 0,-1 10 0,-7-4 0,-5 2 0,-2-2 0,-6-6 0,-1-2 0,3-6 0,0 1 0,0-5 0,1-1 0,-2 0 0,1 0 0,3 0 0,-9 2 0,7 0 0,-6 1 0,10 0 0,2-3 0,1 2 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-14T17:24:04.417"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">778 78 24575,'-4'2'0,"-1"-2"0,-7 9 0,-12 7 0,-9 14 0,-7 4 0,1 4 0,-6 6 0,6-6 0,-2 5 0,-1 2 0,6-4 0,-18 15 0,13-10 0,-4 6 0,18-20 0,-4 21 0,2-6 0,3 14 0,-3-1 0,-1 27 0,2 1 0,11-36 0,1 1 0,-2 38 0,5-20 0,7 15 0,1-19 0,3-2 0,2 11 0,10 8 0,-6-34 0,2 1 0,6 6 0,2 0 0,-1-6 0,1-1 0,2 1 0,1 1 0,4 5 0,0-2 0,10 14 0,12 12 0,-1-33 0,3 5 0,9-3 0,6 1 0,-17-18 0,2-2 0,18 15 0,5-1 0,2-9 0,-1-6 0,-11-9 0,1-3 0,13 3 0,2-4 0,-10-7 0,0-4 0,1-3 0,3-2 0,25-2 0,1-2 0,-9-4 0,-1-3 0,15-3 0,-2-5 0,-20-2 0,-6-3 0,-13 3 0,-3-2 0,0-1 0,-4-2 0,21-15 0,-9 0 0,-8-2 0,-11 4 0,-2-7 0,1-3 0,10-16 0,1-10 0,-2-5 0,-27 33 0,-3-2 0,15-35 0,-1-4 0,-12 21 0,-3 1 0,1-12 0,-2 0 0,-5 14 0,-2 5 0,3-28 0,-11 32 0,-2 1 0,0-10 0,-5-28 0,-1 43 0,-19-28 0,-2 18 0,-8-17 0,-5 12 0,-9-5 0,-5 14 0,-4 0 0,19 13 0,-2 0 0,-33-18 0,0 6 0,12 12 0,4 10 0,1 1 0,0 5 0,-22-11 0,37 21 0,-7-4 0,3 3 0,-7-1 0,-12-5 0,12 3 0,-16-4 0,-5-1 0,-20-5 0,11 2 0,0 1 0,-14 1 0,18 3 0,14 10 0,27 6 0,-3 0 0,11 6 0,-18-2 0,10 2 0,-14 0 0,11-2 0,-1-1 0,-2 0 0,18 1 0,3 2 0,12 0 0,-3 0 0,3 3 0,-10 2 0,4 3 0,-12 5 0,-2 2 0,2 1 0,2-2 0,12-5 0,3-1 0,-3 1 0,6-3 0,-2 1 0,7-5 0,1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1491">1182 476 24575,'-2'-1'0,"2"2"0,-11 35 0,2 3 0,-8 52 0,2-24 0,5 1 0,2-34 0,6-22 0,0-13 0,2-24 0,2-11 0,6-21 0,2-7 0,4 14 0,-4 8 0,0 25 0,-8 10 0,3 5 0,9 10 0,3 9 0,15 21 0,-8-3 0,3 19 0,-10-14 0,-5-9 0,-1-8 0,-9-17 0,4 4 0,-8-7 0,-5-8 0,-14-11 0,-13-9 0,-26-24 0,30 27 0,-11-10 0,39 33 0,2 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-14T17:24:15.193"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1253 230 24575,'0'12'0,"0"46"0,0-20 0,0 48 0,-4-26 0,3-13 0,-3-16 0,4-19 0,1-10 0,1-1 0,4 1 0,3 0 0,22 4 0,2-3 0,44-5 0,-25-6 0,28-13 0,-37 4 0,22-22 0,-37 24 0,9-12 0,-31 23 0,-5-1 0,-1-1 0,0 1 0,-3-5 0,-1 6 0,-4-3 0,-3 4 0,-2 1 0,1 0 0,2 2 0,3 6 0,1 14 0,1 1 0,6 21 0,4-21 0,9 9 0,-2-20 0,21 6 0,-16-13 0,18 3 0,-21-6 0,17-13 0,3-19 0,7-12 0,1-12 0,-6-7 0,-12-18 0,-3-1 0,1 7 0,-5 0 0,-8 15 0,-11 53 0,-2 12 0,-19 28 0,-9 53 0,10-35 0,1 3 0,3 12 0,5-2 0,-3 22 0,13-16 0,7-30 0,0-9 0,6-11 0,0-12 0,2-2 0,-6-6 0,1 0 0,-7-7 0,2-7 0,-8-3 0,1-1 0,-1 6 0,1 6 0,4 3 0,11-5 0,24-10 0,25-17 0,-7 9 0,5-12 0,-33 19 0,1-13 0,-10 3 0,-5 2 0,-5 8 0,-6 14 0,2 18 0,2 8 0,2 3 0,11-1 0,-4-14 0,4-3 0,-10-4 0,-2-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="415">2184 385 24575,'0'-5'0,"33"-21"0,12-4 0,21-9 0,5 3 0,-28 17 0,-5 6 0,-25 10 0,-8 5 0,-5 0 0,-2 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1682">1545 1179 24575,'2'1'0,"4"10"0,2 55 0,-1-1 0,-7 29 0,-1-45 0,-3-21 0,4-26 0,0-29 0,5-21 0,15-42 0,8-9 0,-7 37 0,3 0 0,3-5 0,3-6 0,0 12 0,23-11 0,-13 49 0,-16 47 0,-27 56 0,-16 10 0,3-35 0,-3-5 0,-16 7 0,12-14 0,12-40 0,6-7 0,-1-12 0,2 4 0,4 0 0,15 61 0,-4-4 0,14 37 0,-7-27 0,-4-25 0,3-10 0,-6-22 0,12-22 0,10-20 0,7-25 0,-9 17 0,-10 12 0,-15 32 0,-1 14 0,-1 5 0,4-2 0,-6 4 0,1-9 0,-3-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2582">1755 1917 24575,'4'-5'0,"2"9"0,3 24 0,-3 27 0,1 5 0,-7 16 0,-2-34 0,2-6 0,-4-24 0,1-7 0,-15-16 0,11 8 0,-9-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3298">1670 1948 16050,'28'-19'0,"-3"7"3692,36-11-3692,-6 17 1469,-5 0-1469,-14 8 785,-26 4-785,-7 3 2579,-9 28-2579,-33 36 0,9-21 0,-3 4 0,-12 8 0,-1 0 0,5-7 0,3-3 0,-11 18 0,28-34 0,28-34 0,9-8 0,8-8 0,9 3 0,-5-4 0,0 2 0,-6 5 0,-8-1 0,1 2 0,-8-1 0,2 3 0,-5-1 0,-2 4 0,2-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9000">132 2528 24575,'10'0'0,"6"0"0,0 2 0,-2-1 0,16 5 0,-4-1 0,38 5 0,8 3 0,-2-2 0,-7 2 0,-6-3 0,-13-5 0,41 5 0,-25-7 0,2-1 0,-5 1 0,5 0 0,12 0 0,9 0 0,-6-1 0,-6-1 0,1-1-297,19 2 1,11-1 0,-8 0 296,-7-1 0,-2 0 0,-6 1 0,4-1 0,-5-1 0,10-1 0,-3-1 0,1-2 0,-3-1 0,-20-1 0,-3-1 0,-6 2 0,-4-1 0,27-8 0,2 6 0,-6-5 0,11 0 0,-5 2 444,-14 2 1,1 0-445,-15 3 0,-1 1 0,1-1 0,-2-1 0,12-1 0,8 0 0,-17 1 0,18 1 0,-43 0 0,-6 5 0,-8-2 0,-7 4 0,0 0 0,0-2 0,-1 2 0,3-4 0,-2 2 0,5-2 0,-6 0 0,2 2 0,-10-1 0,-4-5 0,-4-7 0,-1 2 0,4-3 0,2 8 0,2 2 0,0 2 0,6 6 0,8 18 0,15 6 0,-6 1 0,2-6 0,-14-17 0,-6-1 0,-2 5 0,-25 14 0,-2 12 0,-26 16 0,22-13 0,4-8 0,22-19 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10448">257 2414 24575,'-4'0'0,"-2"4"0,-9 11 0,-1 4 0,-8 13 0,-19 12 0,1 2 0,-7-3 0,14-4 0,19-27 0,9 0 0,11-12 0,5 2 0,9 5 0,2 0 0,2 1 0,6 0 0,-13-3 0,3 0 0,-8-4 0,4 1 0,-3-1 0,0 1 0,-4-2 0,-4 1 0,0 0 0,-3 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-14T17:24:28.708"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1819 740 24575,'-4'0'0,"-12"4"0,-8 1 0,-32 5 0,-27 12 0,35-10 0,-1 2 0,-14 7 0,2 1 0,-20 8 0,5 4 0,-3 3 0,30-12 0,-1 1 0,-32 24 0,-2 5 0,21-9 0,2 4 0,-7 11 0,-1 8 0,10-4 0,-2 6 0,3-4-330,-7 10 1,3-2 329,17-18 0,0 1 0,5-5 0,7-7 0,6-2 0,-8 34 0,12-29 0,2 3 0,7-1 0,1-1 0,-13 37 0,14 4 0,3-41 659,4 36-659,12-25 0,1 6 0,19 22 0,8-17 0,-11-26 0,5-1 0,6-3 0,3-2 0,5 2 0,6-1 0,19 6 0,4-1 0,-4-3 0,2-2 0,-9-11 0,4-1 0,-4-3 0,4 1 0,3-4 0,3-6 0,7-2 0,-3-2 0,7 0 0,0-2 0,15-1 0,2-1 0,-12-3 0,-3-3 0,-8-4 0,0-4 0,15-3 0,4-2 0,-22-1 0,2-1 0,-3-1 0,16-3 0,1-2 0,-14 1 0,4-3 0,-6 1 0,4-2 0,-3-2 0,7-2 0,-3-2 0,-19 1 0,-6 0 0,30-20 0,-41 15 0,0-6 0,12-22 0,-1-4 0,-7 6 0,-2 0 0,1-7 0,-4 1 0,-12 18 0,-4 0 0,0-6 0,-4-1 0,11-27 0,-10 7 0,-3 0 0,-5-4 0,-8 25 0,-2 0 0,-2-23 0,-4 13 0,-8-5 0,-1 16 0,-19-8 0,3 16 0,-17-8 0,2 17 0,-12-5 0,-25-6 0,2-1 0,0 0 0,7 4 0,7-7 0,-1 7 0,-6-11 0,19 23 0,-10 0 0,10 7 0,-27-5 0,-3 2 0,4 4 0,-3 1 0,-13-8 0,0-5 0,30 10 0,2 0 0,-14-5 0,7-1 0,39 19 0,-8-7 0,2 3 0,3 2 0,-17-9 0,18 10 0,-45-17 0,37 12 0,-13-3 0,36 10 0,6 4 0,-4-1 0,-1-3 0,-14-6 0,7 3 0,-5-2 0,15 10 0,4 2 0,7 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1517">2214 1719 24575,'-12'0'0,"-21"4"0,-34 16 0,-27 9 0,7 5 0,-1 4 0,49-14 0,-5 7 0,23-9 0,5 4 0,5-3 0,-3 7 0,8-5 0,-4 4 0,9-10 0,3 7 0,5-2 0,2 6 0,8 4 0,1 1 0,26 22 0,-11-19 0,30 16 0,-10-25 0,26 4 0,-31-19 0,3-4 0,10-1 0,0-3 0,-8-5 0,0-3 0,18-5 0,-2-5 0,15-14 0,-19 1 0,0-4 0,-20 1 0,-4-1 0,2-1 0,-3 0 0,13-25 0,-30 9 0,-10 13 0,-11-25 0,-2 22 0,-6-21 0,-8 23 0,-4-1 0,-21-4 0,-24-13 0,21 24 0,-3 1 0,-9-1 0,-1 4 0,-37-10 0,33 19 0,-1 2 0,4 3 0,1 1 0,2-2 0,-1 1 0,-7 3 0,7 1 0,6-1 0,-12 6 0,45 3 0,-8 3 0,9 3 0,2 4 0,-4 4 0,9-4 0,-2-1 0,9-5 0,-3-1 0,2-3 0,-1 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2967">1300 1255 24575,'0'6'0,"2"13"0,3-1 0,2 29 0,-2-24 0,-1 11 0,-4-25 0,2-5 0,-2-7 0,4-24 0,2 0 0,5-43 0,0 25 0,5-23 0,-8 42 0,-1 5 0,-1 26 0,5 13 0,11 36 0,-1 9 0,1 8 0,-13-11 0,0-16 0,-8-13 0,5-8 0,-9-17 0,-16-20 0,-33-37 0,7 10 0,-16-24 0,29 30 0,14 12 0,2 6 0,14 17 0,4 6 0,-1-4 0,3 4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4950">2611 1965 24575,'0'1'0,"0"4"0,-2 16 0,2 6 0,-5 18 0,5-13 0,-2 4 0,2-24 0,0-4 0,0-11 0,0-5 0,0-22 0,0-6 0,7-41 0,1 19 0,5 2 0,-5 30 0,-4 18 0,1 7 0,-1 0 0,4 6 0,0 1 0,2 13 0,-5 0 0,-6 12 0,-11 1 0,-5 0 0,-1-2 0,5-13 0,4-4 0,4-12 0,9-1 0,9-7 0,1 1 0,3 2 0,-3 4 0,-5 2 0,1 1 0,-8 7 0,0-1 0,-6 15 0,-5 2 0,-1-2 0,-5 0 0,-7-11 0,-2 5 0,-2-5 0,1 3 0,13-11 0,4 1 0,5-4 0,4-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25450">1627 1150 24575,'4'-2'0,"-1"-1"0,3-1 0,3-8 0,42-42 0,-13 9 0,4-7 0,1 1 0,5-5 0,-3 4 0,4-6 0,1 0 0,-4 3 0,2-2 0,-8 10 0,3 5 0,-7 2 0,-5 4 0,-17 22 0,-4 6 0,-9 6 0,-1 4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26433">2665 1 24575,'0'3'0,"0"0"0,-6 4 0,1 1 0,-13 17 0,11-6 0,-12 12 0,10-7 0,2-9 0,-1 7 0,4-8 0,1-1 0,1 1 0,6-3 0,-1 2 0,3 1 0,5 4 0,-3-6 0,8 0 0,-10-8 0,11-2 0,-7-4 0,20-10 0,5-6 0,2-5 0,-2-2 0,-9 3 0,-17 6 0,1 7 0,-10 4 0,0 6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27066">2859 112 24575,'4'3'0,"1"4"0,5 22 0,0 0 0,10 32 0,-7-28 0,7 0 0,-11-24 0,0-13 0,-6 0 0,5-10 0,-3-6 0,1-8 0,-4 3 0,-6 2 0,0 11 0,-2 4 0,1 3 0,3 4 0,0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28450">2615 1820 24575,'4'-2'0,"1"-3"0,25-25 0,8-13 0,20-18 0,4-4 0,2-1 0,-16 18 0,-4 8 0,-16 13 0,-9 10 0,10-13 0,0 2 0,3-2 0,6 1 0,2-3 0,-9 13 0,14-11 0,8-2 0,10-4 0,1-2 0,-19 13 0,-23 11 0,-5 3 0,14-9 0,-7 0 0,12-2 0,-24 10 0,-6 11 0,-7 0 0,0 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29317">3861 751 24575,'-4'4'0,"0"-2"0,-5 16 0,-4 7 0,-1 19 0,4-9 0,5-2 0,5-20 0,5-5 0,0-3 0,2-3 0,0 1 0,-3-1 0,1 2 0,2 5 0,0 19 0,-5 1 0,-1 7 0,-9-8 0,2-16 0,-1-1 0,2-9 0,1-2 0,1 0 0,-5-7 0,4 1 0,-2-1 0,4 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30183">4021 892 24575,'-3'-4'0,"-3"4"0,-8 8 0,-2 10 0,-4 16 0,4 7 0,3 5 0,6-11 0,9-14 0,4-16 0,21-25 0,-6-3 0,10-12 0,-18 10 0,-7 11 0,-4 8 0,-2 6 0,2 2 0,-2 1 0,2-2 0,-2 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31017">4029 839 24575,'-16'5'0,"-14"16"0,-9 18 0,0 25 0,12-8 0,12 0 0,9-8 0,6-10 0,11 4 0,4-23 0,4-9 0,28-25 0,-17 2 0,38-29 0,-32 3 0,-2-7 0,-14 0 0,-16-12 0,-9 8 0,-9-7 0,-4 27 0,-2 14 0,-11 27 0,0 14 0,-10 20 0,14-2 0,9-15 0,14-11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31666">4534 1016 24575,'2'-2'0,"0"0"0,0 5 0,1 1 0,0 13 0,1 8 0,-8 11 0,-6 4 0,-1-15 0,0-13 0,12-26 0,9-35 0,16-13 0,11-13 0,-1 21 0,-11 28 0,-17 20 0,-10 10 0,0 2 0,0-5 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-14T17:25:06.892"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 162 24575,'9'11'0,"0"-2"0,6 9 0,0-8 0,-10 1 0,9-3 0,-11-1 0,4-1 0,-2 1 0,-2 0 0,4 5 0,-5 2 0,4 2 0,-6-2 0,2 0 0,-2 1 0,0-6 0,0 1 0,0-8 0,0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="908">88 177 24575,'48'26'0,"2"1"0,2 9 0,-14-12 0,-7-5 0,-19-12 0,-2-1 0,-8-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1416">325 1 24575,'0'5'0,"0"38"0,-3 16 0,0 9 0,-1 3 0,0 13 0,-2 11 0,6-76 0,1-15 0,0-1 0,0-3 0,-1 2 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-14T17:25:12.091"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4 95 24575,'-2'4'0,"0"14"0,2 2 0,0 16 0,0-2 0,0-4 0,0-4 0,0-14 0,0-6 0,0-7 0,0-7 0,0 5 0,0-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="600">19 90 24575,'22'11'0,"0"1"0,4 4 0,-5-1 0,-4-5 0,0-2 0,-4-4 0,2-3 0,-6-1 0,1 0 0,-6 0 0,-1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1154">218 1 24575,'2'7'0,"2"8"0,-2 29 0,1-1 0,-1 12 0,-2-17 0,0-17 0,0-8 0,0-11 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-14T17:25:27.443"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1298 901 24575,'-4'0'0,"2"2"0,-5 0 0,0 4 0,-33 16 0,-5 16 0,2-8 0,-3 2 0,6 4 0,2 0 0,-7 2 0,0 1 0,-1 5 0,1 2 0,1 3 0,0 1 0,-4-1 0,1 0 0,3 6 0,2 1 0,3-8 0,1 3 0,-3 9 0,2 3 0,2 1 0,1 2 0,-6 13 0,3-1 0,11-22 0,2-1 0,-3 14 0,3-2 0,-1 8 0,9-20 0,1 4 0,1 6 0,2 0 0,3-1 0,0 0 0,1 4 0,1 1 0,2 0 0,2-2 0,3-16 0,-1-1 0,0 12 0,1-2 0,10 21 0,13 16 0,0-27 0,4 1 0,-1-9 0,3 0 0,7 16 0,4-2 0,6-11 0,2-6 0,-13-16 0,3-2 0,22 18 0,5-3 0,-11-17 0,2-3 0,8 8 0,3 0 0,11 3 0,3-1 0,-1-6 0,2-1 0,3 3 0,0-3 0,3-4 0,1-4 0,6 1 0,2-5 0,2-9 0,2-3 0,-31-3 0,1 0 0,1-3-175,1-5 0,1-2 1,-2-1 174,21 4 0,3-3 0,-9-8 0,5-3 0,-4-1 0,-17 3 0,-2-2 0,2-1 0,13-6 0,3-3 0,-7-1 0,-5 0 0,-4-5 0,-5-4 0,3-5 0,-4 0 0,13-11 0,0-2-148,-8 5 0,2-4 1,-4 2 147,6-8 0,-6 2 0,-9 7 0,-3-4 0,-1-11 0,-6 1 0,9-11 256,-4-14 0,-5-4-256,-13-2 0,-12 23 0,2-10 0,-5 4 0,-4 0 0,-3 1 0,4-16 0,-3 0 0,-6 17 0,-2 3 227,-1-2 1,-2 0-228,-5-1 0,0 0 0,0-2 0,-2 4 0,-3 16 0,-1 2 0,-1-2 0,-2 2 0,-12-26 0,6 25 0,-1 0 0,-11-31 0,-11-10 0,8 2 0,9 34 0,1 1 0,-8-26 0,5 22 0,-2 2 0,-7-9 0,9 23 0,-2 0 0,-18-20 0,9 21 0,-4 2 0,-5 4 0,-16-4 0,-11-6 0,12 12 0,4 3 0,-14-8 0,1 2 0,22 9 0,-1 0 0,-29-11 0,-12-3 0,38 19 0,-2 0 0,-3 1 0,0 0 0,3 0 0,2 2 0,-36-10 0,-3 5 0,32 7 0,-38-3 0,47 9 0,-18 0 0,-9 1 0,23 4 0,-36-3 0,36 3 0,-41-7 0,30 4 0,-13-1 0,39 5 0,-33 2 0,19 1 0,-27 4 0,31 1 0,-9 5 0,4 4 0,4-6 0,-17 5 0,32-8 0,-8 0 0,25 1 0,4-4 0,12 4 0,-7 4 0,-3 5 0,-10 7 0,4-1 0,0-2 0,9-3 0,2-4 0,-4 13 0,3-9 0,-5 13 0,9-17 0,0 0 0,4-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1875">2274 76 24575,'0'7'0,"-2"13"0,-1 14 0,-2 10 0,3-3 0,-1-7 0,2-16 0,2-8 0,-2-6 0,4-14 0,2-22 0,8-22 0,-1 3 0,4-4 0,-4 18 0,-4 13 0,0 3 0,-4 18 0,1 7 0,21 23 0,9 25 0,4 7 0,-3 6 0,-17-21 0,-2-7 0,-7-15 0,-1-6 0,-8-16 0,-1-2 0,-2-5 0,-11-20 0,0 1 0,-4-11 0,3 15 0,5 9 0,1 8 0,3 3 0,-6 0 0,2 2 0,-7-2 0,7 2 0,1 0 0,3-2 0,1 2 0,-5 2 0,4-1 0,-4 2 0,4 0 0,-3 0 0,-1 2 0,1-1 0,-3 0 0,7 1 0,-2-1 0,3-1 0,2-1 0,0-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2790">1113 1582 24575,'2'12'0,"4"36"0,-1 4 0,1 16 0,-3-16 0,-2-27 0,0-11 0,0-10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3885">1010 2271 24575,'2'-2'0,"5"2"0,-2-4 0,10 4 0,-5-2 0,7 5 0,-4 2 0,0 1 0,-5-1 0,1 4 0,-6 6 0,-4 25 0,-7-11 0,-19 43 0,2-31 0,-8 16 0,16-33 0,10-11 0,11-11 0,13-4 0,6-3 0,8 0 0,5-1 0,-14 3 0,-2 1 0,-17 2 0,-1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4832">1030 2994 24575,'5'-5'0,"0"-3"0,10-4 0,15-12 0,10 5 0,-1-2 0,-8 12 0,-21 8 0,-3 1 0,-5 8 0,-2 8 0,2 7 0,-4 5 0,2-5 0,-4-10 0,4-6 0,-2-3 0,6 4 0,-3-4 0,7 13 0,-6-6 0,7 20 0,-8-16 0,-3 15 0,-11-14 0,-7 8 0,-10-1 0,-12-1 0,8-5 0,-4-7 0,23-6 0,5-4 0,7 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5731">1273 3396 24575,'-2'3'0,"2"16"0,1 17 0,1 7 0,2 7 0,-1-24 0,2-10 0,-1-13 0,-2-3 0,9-6 0,-3-4 0,9-7 0,-7 4 0,-3 1 0,-2 10 0,-5 4 0,2 34 0,-2 21 0,-3 10 0,3-8 0,-2-26 0,2-21 0,2-4 0,4-17 0,-3 5 0,2-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6432">2868 2503 24575,'-5'3'0,"-2"9"0,-5 9 0,2 29 0,1-2 0,6 7 0,11-15 0,3-18 0,12-2 0,-8-10 0,1 2 0,-11 1 0,-5 4 0,-6 4 0,1-3 0,-3-8 0,-3-16 0,4 2 0,-16-27 0,16 23 0,-7-14 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8582">3267 3205 24575,'-4'0'0,"-16"8"0,-2 11 0,-28 24 0,-2 25 0,16-18 0,2 3 0,8-4 0,3 0 0,-1-3 0,5-1 0,7 12 0,4-25 0,13-3 0,0-12 0,7 3 0,6-8 0,-1-1 0,13-5 0,-13-2 0,10-10 0,-9-6 0,2-14 0,-5 4 0,-7-7 0,-13 7 0,-1 3 0,-6 0 0,3 9 0,-4 5 0,7 3 0,-2 2 0,3 2 0,1-2 0,-1 3 0,2-1 0,-1 0 0,0-2 0,1 0 0,-1-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12198">1478 1319 24575,'-4'0'0,"-2"0"0,-8 3 0,-14 5 0,-37 23 0,5-2 0,11-4 0,0 1 0,-19 13 0,-8-5 0,24-6 0,9-7 0,14-5 0,7 1 0,4-5 0,6 4 0,-2 1 0,-7 12 0,-9 9 0,4-5 0,0 3 0,12-9 0,5-5 0,-1 7 0,-1-3 0,-1 24 0,-14 29 0,5 9 0,-10 5 0,14-10 0,-3-3 0,10-18 0,-4 25 0,8-43 0,1 32 0,2-39 0,5 9 0,3-19 0,0 8 0,9 28 0,-5-13 0,9 28 0,-10-43 0,6 23 0,-7-31 0,6 16 0,-1-12 0,1 6 0,11 21 0,-8-13 0,6 10 0,-10-21 0,11 18 0,-4-7 0,12 17 0,-12-21 0,0-12 0,-5-7 0,-5-15 0,8 14 0,0-4 0,17 27 0,-11-19 0,22 26 0,-22-30 0,13 9 0,-16-14 0,0-3 0,1 3 0,-1-3 0,29 22 0,-13-10 0,18 9 0,-10-9 0,-13-12 0,11 4 0,-14-9 0,0-3 0,1-3 0,-2-1 0,17-1 0,1-5 0,11-5 0,-4-3 0,32-20 0,-23 1 0,-17 8 0,1-3 0,22-27 0,-28 22 0,0-2 0,29-31 0,-7-4 0,-14 10 0,-11-1 0,8-19 0,-21 26 0,9-33 0,-13 17 0,-6 16 0,1-4 0,-3-2 0,0 0 0,-1-5 0,-1 3 0,1-22 0,-7 3 0,-11 11 0,-1-9 0,-2-14 0,3 29 0,2-10 0,-2 6 0,2 5 0,-8-25 0,7 43 0,-11-36 0,3 20 0,0 8 0,-2-1 0,-6-17 0,2 18 0,-1 4 0,3 8 0,-14-14 0,-4 6 0,8 11 0,-26-19 0,23 29 0,-24-17 0,14 11 0,-8 2 0,9 5 0,6 11 0,6 6 0,1 5 0,-8-3 0,-20-2 0,5-1 0,-3-2 0,26 9 0,9 1 0,1 2 0,-3 6 0,-17 3 0,4 5 0,-6 2 0,16-5 0,10-2 0,2-4 0,5 1 0,-3 7 0,-11 14 0,2 5 0,0-5 0,11-10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12931">2244 1630 24575,'7'-4'0,"60"-15"0,35-5 0,-33 9 0,6 1 0,6-1 0,6-1-1639,-4 0 1,5-2-1,5 0 1,4 0 0,3 0-1,3 1 1629,-16 4 0,4 0 1,2 0-1,3 0 0,1 0 1,2 1-1,0 0 1,0 0-1,0-1 10,-5 2 0,1 0 0,1-1 0,1 1 0,1 0 0,-1 0 0,-1 0 0,0 1 0,-2-1 0,-1 1 0,-1 1 0,0-1 0,-1 1 0,0 0 0,-2 0 0,0 1 0,-3 0 0,-1-1 0,-3 1 0,24-2 0,0 0 0,-3 0 0,-5 0 0,-9 2 0,-13 1 1304,27-2 1,-28 1-1305,-34 0 1536,-37 8-1536,-5 3 0,1 0 0,0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14048">7278 903 24575,'-6'0'0,"0"5"0,-6 11 0,-7 15 0,-5 17 0,1 6 0,8-9 0,7-6 0,8-20 0,2-3 0,5-5 0,2-4 0,12 7 0,-2-8 0,1 3 0,-7-6 0,4-4 0,-1-4 0,14-13 0,-4-5 0,-2-3 0,-8-2 0,-10 9 0,-4-6 0,-4 4 0,-6-3 0,1 6 0,-3 1 0,4 11 0,-5-1 0,4 4 0,-4-1 0,5 4 0,3 2 0,-7 10 0,1 3 0,-1-2 0,5-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14798">7528 1026 24575,'4'1'0,"3"3"0,3 10 0,1-2 0,9 22 0,-10-12 0,4 24 0,-11-19 0,-6 9 0,-6-13 0,4-8 0,-1-27 0,8-12 0,17-42 0,11 2 0,15-4 0,-15 24 0,-7 21 0,-21 21 0,-1 2 0,-1 4 0,0-2 0,0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17248">7829 983 24402,'-8'4'0,"-3"12"86,-7 6-86,-2 21 29,0 1-29,10-9 15,5-12-15,19-23 43,19-17-43,-4-1 0,10-19 0,-20-18 0,-6-5 0,-3-2 0,-9 28 0,-2 24 0,0 14 0,1 11 0,0 22 0,0 12 0,2 4 0,6 0 0,4-20 0,-1-5 0,1-15 0,-5-6 0,3-7 0,8-2 0,-3-2 0,9-9 0,1-10 0,-1-4 0,1-9 0,-12 5 0,-6-2 0,-7 14 0,0 2 0,-4 15 0,2 3 0,-6 12 0,-3 9 0,1 13 0,1 0 0,9-5 0,5-11 0,0-10 0,3-3 0,-2-4 0,6-1 0,5-1 0,4-7 0,9-13 0,-9 0 0,13-32 0,-21 22 0,7-17 0,-20 19 0,0 15 0,-6 0 0,3 14 0,-1-1 0,2 4 0,-1 4 0,2-1 0,2 7 0,7 16 0,0-12 0,2 15 0,-4-23 0,-2-2 0,0-4 0,-2 0 0,0 3 0,-5 11 0,0 20 0,-2-9 0,1 10 0,3-28 0,2-1 0,8-14 0,0 1 0,14-16 0,-1 2 0,16-37 0,-7 8 0,3-21 0,-4-3 0,-16 33 0,-1-1 0,-17 42 0,3 17 0,-2 2 0,5 13 0,0-9 0,6-1 0,0-7 0,3-1 0,2-7 0,-4 2 0,5 1 0,-6 2 0,-2 5 0,-6 0 0,-6 0 0,-13 8 0,-3-5 0,-11 4 0,17-16 0,0-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19381">2922 2443 24575,'9'0'0,"20"-5"0,6 2 0,11-4 0,-6 2 0,-7 2 0,-11 2 0,-4 1 0,-11 0 0,-2 0 0,-2 1 0,-2 1 0,-1 0 0,0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-12-14T17:26:16.501"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 526 24575,'15'2'0,"12"1"0,10 4 0,9 0 0,0 3 0,-8-5 0,-1-1 0,-7-4 0,-6 0 0,-6 0 0,-8 0 0,-8 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1673">736 391 24575,'0'-4'0,"-4"-3"0,-2 4 0,-8 2 0,-6 11 0,-3 8 0,0 10 0,4 12 0,12 38 0,18 15 0,9-2 0,13-21 0,-12-42 0,3-13 0,-13-11 0,6 0 0,-9-6 0,3-4 0,8-9 0,-6-5 0,8-1 0,-16-7 0,2 6 0,-7-5 0,2 9 0,-2 6 0,0 12 0,2 2 0,9 22 0,6 10 0,8 17 0,-1-13 0,-1-11 0,-3-19 0,-6-6 0,-2-9 0,-3-7 0,-2-10 0,4-14 0,-2-5 0,-4-1 0,0 17 0,-7 12 0,2 15 0,0 2 0,7 11 0,4-3 0,9 10 0,4-9 0,1 3 0,-1-7 0,-8 0 0,-5 1 0,-7 2 0,0-2 0,-6-4 0,-3-28 0,5-43 0,7-6 0,5-6 0,-1 11 0,3-2 0,0 3 0,2-3 0,-1 8 0,10-25 0,-5 0 0,-15 73 0,-4 10 0,3 78 0,-5-25 0,0 4 0,1 23 0,1 2 0,-3-10 0,1-5 0,5 29 0,4-46 0,-3-26 0,1-12 0,-7-7 0,-1-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1990">1089 400 24575,'26'-4'0,"17"-5"0,8-5 0,18-5 0,-26 3 0,-6 0 0,-29 10 0,-5 1 0,-3 3 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1186,8 +1980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B837A6-8CD5-FD4F-B52C-B6BA3E0045B7}">
   <dimension ref="B2:B75"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="194" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView topLeftCell="A53" zoomScale="194" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1618,144 +2412,144 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
@@ -1817,134 +2611,134 @@
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="H36" s="10" t="s">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="H36" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="H37" s="10"/>
-      <c r="J37" s="10"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="H37" s="8"/>
+      <c r="J37" s="8"/>
     </row>
     <row r="38" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="H38" s="10"/>
-      <c r="J38" s="10"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="H38" s="8"/>
+      <c r="J38" s="8"/>
     </row>
     <row r="39" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="H39" s="10"/>
-      <c r="J39" s="10"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="H39" s="8"/>
+      <c r="J39" s="8"/>
     </row>
     <row r="40" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="H41" s="10" t="s">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="H41" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="J41" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="H42" s="10"/>
-      <c r="J42" s="10"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="H42" s="8"/>
+      <c r="J42" s="8"/>
     </row>
     <row r="43" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="H43" s="10"/>
-      <c r="J43" s="10"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="H43" s="8"/>
+      <c r="J43" s="8"/>
     </row>
     <row r="44" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="H44" s="10"/>
-      <c r="J44" s="10"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="H44" s="8"/>
+      <c r="J44" s="8"/>
     </row>
     <row r="45" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="H45" s="10"/>
-      <c r="J45" s="10"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="H45" s="8"/>
+      <c r="J45" s="8"/>
     </row>
     <row r="46" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="H46" s="10"/>
-      <c r="J46" s="10"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="H46" s="8"/>
+      <c r="J46" s="8"/>
     </row>
     <row r="47" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="H47" s="10"/>
-      <c r="J47" s="10"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="H47" s="8"/>
+      <c r="J47" s="8"/>
     </row>
     <row r="48" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="H48" s="10"/>
-      <c r="J48" s="10"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="H48" s="8"/>
+      <c r="J48" s="8"/>
     </row>
     <row r="49" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
@@ -2038,7 +2832,7 @@
       <c r="K70" t="s">
         <v>114</v>
       </c>
-      <c r="L70" s="11" t="s">
+      <c r="L70" s="9" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2067,7 +2861,7 @@
       <c r="K71" t="s">
         <v>115</v>
       </c>
-      <c r="L71" s="12"/>
+      <c r="L71" s="10"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72">
@@ -2094,7 +2888,7 @@
       <c r="K72" t="s">
         <v>116</v>
       </c>
-      <c r="L72" s="13"/>
+      <c r="L72" s="11"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73">
@@ -2293,7 +3087,7 @@
       <c r="K82" t="s">
         <v>114</v>
       </c>
-      <c r="L82" s="11" t="s">
+      <c r="L82" s="9" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2322,7 +3116,7 @@
       <c r="K83" t="s">
         <v>115</v>
       </c>
-      <c r="L83" s="12"/>
+      <c r="L83" s="10"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84">
@@ -2349,7 +3143,7 @@
       <c r="K84" t="s">
         <v>116</v>
       </c>
-      <c r="L84" s="13"/>
+      <c r="L84" s="11"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85">
@@ -2640,7 +3434,7 @@
       <c r="K99" t="s">
         <v>115</v>
       </c>
-      <c r="L99" s="11" t="s">
+      <c r="L99" s="9" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2669,7 +3463,7 @@
       <c r="K100" t="s">
         <v>116</v>
       </c>
-      <c r="L100" s="12"/>
+      <c r="L100" s="10"/>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B101">
@@ -2696,7 +3490,7 @@
       <c r="K101" t="s">
         <v>116</v>
       </c>
-      <c r="L101" s="13"/>
+      <c r="L101" s="11"/>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B102">
@@ -2907,7 +3701,7 @@
       <c r="K112" t="s">
         <v>114</v>
       </c>
-      <c r="L112" s="11" t="s">
+      <c r="L112" s="9" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2936,7 +3730,7 @@
       <c r="K113" t="s">
         <v>115</v>
       </c>
-      <c r="L113" s="12"/>
+      <c r="L113" s="10"/>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B114">
@@ -2963,7 +3757,7 @@
       <c r="K114" t="s">
         <v>116</v>
       </c>
-      <c r="L114" s="13"/>
+      <c r="L114" s="11"/>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B115">
@@ -3322,7 +4116,7 @@
       <c r="K132" t="s">
         <v>116</v>
       </c>
-      <c r="L132" s="11" t="s">
+      <c r="L132" s="9" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3351,7 +4145,7 @@
       <c r="K133" t="s">
         <v>117</v>
       </c>
-      <c r="L133" s="12"/>
+      <c r="L133" s="10"/>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B134">
@@ -3378,7 +4172,7 @@
       <c r="K134" t="s">
         <v>118</v>
       </c>
-      <c r="L134" s="13"/>
+      <c r="L134" s="11"/>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B135">
@@ -3817,7 +4611,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="14">
+      <c r="B19" s="7">
         <v>7</v>
       </c>
       <c r="D19">
@@ -3957,8 +4751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69A5CD8-03F5-1E45-A10B-1BF4340C842E}">
   <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="260" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="260" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4095,4 +4889,194 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D6DA4D-4296-634A-952D-B492EEECF752}">
+  <dimension ref="B2:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="236" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>151</v>
+      </c>
+      <c r="I20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>